--- a/wwwroot/templates/Employee.xlsx
+++ b/wwwroot/templates/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\CRUDDEMO1\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219150BF-AE91-4F5C-A21E-9E411FCEBB33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF986EC-9E75-4E69-8AA7-930A34B35476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,12 +100,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -425,18 +429,18 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/wwwroot/templates/Employee.xlsx
+++ b/wwwroot/templates/Employee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\CRUDDEMO1\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF986EC-9E75-4E69-8AA7-930A34B35476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEB63D7-540D-4A64-B3AF-719E13F0EBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2580" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -50,68 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -426,26 +363,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
